--- a/db/Please update this one tomorrow.xlsx
+++ b/db/Please update this one tomorrow.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\Javafx-AWS-RDS\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA01A3-69B0-4260-84CA-C95BE639CDD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EE024-902F-41C2-B4F4-040FE5071951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="15" windowWidth="17025" windowHeight="10245" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="p04 r17 firmware no assem" sheetId="1" r:id="rId1"/>
     <sheet name="p04 updated firmware no burnin" sheetId="2" r:id="rId2"/>
-    <sheet name="assem upload firmware" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="assem upload firmware" sheetId="3" r:id="rId4"/>
+    <sheet name="new fail" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>stt</t>
   </si>
@@ -201,16 +205,161 @@
   </si>
   <si>
     <t>30N004000055</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>30N004000127</t>
+  </si>
+  <si>
+    <t>30N004000061</t>
+  </si>
+  <si>
+    <t>30N004000063</t>
+  </si>
+  <si>
+    <t>30N004000197</t>
+  </si>
+  <si>
+    <t>30N004000001</t>
+  </si>
+  <si>
+    <t>no power</t>
+  </si>
+  <si>
+    <t>30N004000115</t>
+  </si>
+  <si>
+    <t>30N004000114</t>
+  </si>
+  <si>
+    <t>30N004000282</t>
+  </si>
+  <si>
+    <t>30N004000309</t>
+  </si>
+  <si>
+    <t>30N004000353</t>
+  </si>
+  <si>
+    <t>30N004000111</t>
+  </si>
+  <si>
+    <t>30N004000354</t>
+  </si>
+  <si>
+    <t>30N004000337</t>
+  </si>
+  <si>
+    <t>30N004000036</t>
+  </si>
+  <si>
+    <t>30N004000146</t>
+  </si>
+  <si>
+    <t>30N004000396</t>
+  </si>
+  <si>
+    <t>30N004000062</t>
+  </si>
+  <si>
+    <t>30N004000316</t>
+  </si>
+  <si>
+    <t>30N004000310</t>
+  </si>
+  <si>
+    <t>30N004000305</t>
+  </si>
+  <si>
+    <t>30N004000079</t>
+  </si>
+  <si>
+    <t>30N004000204</t>
+  </si>
+  <si>
+    <t>30N004000053</t>
+  </si>
+  <si>
+    <t>30N004000285</t>
+  </si>
+  <si>
+    <t>30N004000074</t>
+  </si>
+  <si>
+    <t>30N004000322</t>
+  </si>
+  <si>
+    <t>30N004000032</t>
+  </si>
+  <si>
+    <t>30N004000384</t>
+  </si>
+  <si>
+    <t>30N004000085</t>
+  </si>
+  <si>
+    <t>30N004000193</t>
+  </si>
+  <si>
+    <t>30N004000129</t>
+  </si>
+  <si>
+    <t>30N004000205</t>
+  </si>
+  <si>
+    <t>30N004000069</t>
+  </si>
+  <si>
+    <t>30N004000321</t>
+  </si>
+  <si>
+    <t>30N004000332</t>
+  </si>
+  <si>
+    <t>30N004000349</t>
+  </si>
+  <si>
+    <t>30N004000132</t>
+  </si>
+  <si>
+    <t>30N004000045</t>
+  </si>
+  <si>
+    <t>30N004000120</t>
+  </si>
+  <si>
+    <t>30N004000030</t>
+  </si>
+  <si>
+    <t>30N004000311</t>
+  </si>
+  <si>
+    <t>30N004000341</t>
+  </si>
+  <si>
+    <t>30N004000049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,8 +385,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E415887-81C8-46B5-8F10-37A97DBE9218}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0202EFDE-EF5F-4F71-BEDE-CA9C8F33FD36}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1950,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1816,7 +1966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1832,12 +1982,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1845,7 +2005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +2013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1861,7 +2021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1875,6 +2035,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288860F8-B1F9-4E34-8D7B-A7E71183E4F1}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.17461614040003E+16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C4E49-174D-4650-AAD1-4AEB8DFA561B}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1912,4 +2285,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017128F1-DBCA-45EF-9C54-9BE3BD1A4F6C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/Please update this one tomorrow.xlsx
+++ b/db/Please update this one tomorrow.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\Javafx-AWS-RDS\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EE024-902F-41C2-B4F4-040FE5071951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C24C2-6061-4B25-BB91-26EC13F7076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="p04 r17 firmware no assem" sheetId="1" r:id="rId1"/>
     <sheet name="p04 updated firmware no burnin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
+    <sheet name="112019" sheetId="6" r:id="rId3"/>
     <sheet name="assem upload firmware" sheetId="3" r:id="rId4"/>
     <sheet name="new fail" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="179">
   <si>
     <t>stt</t>
   </si>
@@ -343,6 +343,237 @@
   </si>
   <si>
     <t>30N004000049</t>
+  </si>
+  <si>
+    <t>packed</t>
+  </si>
+  <si>
+    <t>30N004000391</t>
+  </si>
+  <si>
+    <t>30N004000401</t>
+  </si>
+  <si>
+    <t>30N004000066</t>
+  </si>
+  <si>
+    <t>30N004000228</t>
+  </si>
+  <si>
+    <t>30N004000105</t>
+  </si>
+  <si>
+    <t>30N004000195</t>
+  </si>
+  <si>
+    <t>30N004000002</t>
+  </si>
+  <si>
+    <t>30N004000152</t>
+  </si>
+  <si>
+    <t>30N004000162</t>
+  </si>
+  <si>
+    <t>30N004000227</t>
+  </si>
+  <si>
+    <t>SMC-P04 R17</t>
+  </si>
+  <si>
+    <t>30n004000196</t>
+  </si>
+  <si>
+    <t>30N004000283</t>
+  </si>
+  <si>
+    <t>30N004000116</t>
+  </si>
+  <si>
+    <t>30N004000377</t>
+  </si>
+  <si>
+    <t>30N004000239</t>
+  </si>
+  <si>
+    <t>30N004000058</t>
+  </si>
+  <si>
+    <t>30N004000200</t>
+  </si>
+  <si>
+    <t>30N004000325</t>
+  </si>
+  <si>
+    <t>30N004000188</t>
+  </si>
+  <si>
+    <t>30N004000314</t>
+  </si>
+  <si>
+    <t>30N004000234</t>
+  </si>
+  <si>
+    <t>30N004000334</t>
+  </si>
+  <si>
+    <t>30N004000106</t>
+  </si>
+  <si>
+    <t>30N004000372</t>
+  </si>
+  <si>
+    <t>30N004000068</t>
+  </si>
+  <si>
+    <t>30N004000375</t>
+  </si>
+  <si>
+    <t>30N004000103</t>
+  </si>
+  <si>
+    <t>30N004000226</t>
+  </si>
+  <si>
+    <t>30N004000368</t>
+  </si>
+  <si>
+    <t>30N004000323</t>
+  </si>
+  <si>
+    <t>30N004000346</t>
+  </si>
+  <si>
+    <t>30N004000373</t>
+  </si>
+  <si>
+    <t>30N004000110</t>
+  </si>
+  <si>
+    <t>30N004000376</t>
+  </si>
+  <si>
+    <t>30N004000121</t>
+  </si>
+  <si>
+    <t>30n004000230</t>
+  </si>
+  <si>
+    <t>30n004000093</t>
+  </si>
+  <si>
+    <t>30n004000081</t>
+  </si>
+  <si>
+    <t>30n004000313</t>
+  </si>
+  <si>
+    <t>30n004000213</t>
+  </si>
+  <si>
+    <t>30n004000367</t>
+  </si>
+  <si>
+    <t>30n004000395</t>
+  </si>
+  <si>
+    <t>30n004000143</t>
+  </si>
+  <si>
+    <t>30n004000198</t>
+  </si>
+  <si>
+    <t>30n004000020</t>
+  </si>
+  <si>
+    <t>30n004000091</t>
+  </si>
+  <si>
+    <t>30n004000189</t>
+  </si>
+  <si>
+    <t>30n004000101</t>
+  </si>
+  <si>
+    <t>30n004000139</t>
+  </si>
+  <si>
+    <t>30n004000140</t>
+  </si>
+  <si>
+    <t>30n004000206</t>
+  </si>
+  <si>
+    <t>30n004000128</t>
+  </si>
+  <si>
+    <t>30n004000374</t>
+  </si>
+  <si>
+    <t>30n004000306</t>
+  </si>
+  <si>
+    <t>30n004000013</t>
+  </si>
+  <si>
+    <t>30N004000007</t>
+  </si>
+  <si>
+    <t>30N004000378</t>
+  </si>
+  <si>
+    <t>30N004000238</t>
+  </si>
+  <si>
+    <t>30N004000022</t>
+  </si>
+  <si>
+    <t>30N004000399</t>
+  </si>
+  <si>
+    <t>30N004000333</t>
+  </si>
+  <si>
+    <t>30N004000211</t>
+  </si>
+  <si>
+    <t>30N004000324</t>
+  </si>
+  <si>
+    <t>30N004000369</t>
+  </si>
+  <si>
+    <t>30N004000347</t>
+  </si>
+  <si>
+    <t>30N004000141</t>
+  </si>
+  <si>
+    <t>30N004000402</t>
+  </si>
+  <si>
+    <t>30N004000039</t>
+  </si>
+  <si>
+    <t>30N004000118</t>
+  </si>
+  <si>
+    <t>30N004000194</t>
+  </si>
+  <si>
+    <t>30N004000319</t>
+  </si>
+  <si>
+    <t>30N004000019</t>
+  </si>
+  <si>
+    <t>30N004000109</t>
+  </si>
+  <si>
+    <t>30N004000229</t>
+  </si>
+  <si>
+    <t>30N004000335</t>
   </si>
 </sst>
 </file>
@@ -704,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E415887-81C8-46B5-8F10-37A97DBE9218}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +2172,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,15 +2267,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288860F8-B1F9-4E34-8D7B-A7E71183E4F1}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2207,39 +2439,648 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="D113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/db/Please update this one tomorrow.xlsx
+++ b/db/Please update this one tomorrow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\Javafx-AWS-RDS\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C24C2-6061-4B25-BB91-26EC13F7076C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B69F3B-D240-4867-B662-DAA29F6D0F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="p04 r17 firmware no assem" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="assem upload firmware" sheetId="3" r:id="rId4"/>
     <sheet name="new fail" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>stt</t>
   </si>
@@ -348,232 +346,19 @@
     <t>packed</t>
   </si>
   <si>
-    <t>30N004000391</t>
-  </si>
-  <si>
-    <t>30N004000401</t>
-  </si>
-  <si>
-    <t>30N004000066</t>
-  </si>
-  <si>
-    <t>30N004000228</t>
-  </si>
-  <si>
-    <t>30N004000105</t>
-  </si>
-  <si>
-    <t>30N004000195</t>
-  </si>
-  <si>
-    <t>30N004000002</t>
-  </si>
-  <si>
-    <t>30N004000152</t>
-  </si>
-  <si>
-    <t>30N004000162</t>
-  </si>
-  <si>
-    <t>30N004000227</t>
-  </si>
-  <si>
     <t>SMC-P04 R17</t>
   </si>
   <si>
     <t>30n004000196</t>
   </si>
   <si>
-    <t>30N004000283</t>
-  </si>
-  <si>
-    <t>30N004000116</t>
-  </si>
-  <si>
-    <t>30N004000377</t>
-  </si>
-  <si>
-    <t>30N004000239</t>
-  </si>
-  <si>
-    <t>30N004000058</t>
-  </si>
-  <si>
-    <t>30N004000200</t>
-  </si>
-  <si>
-    <t>30N004000325</t>
-  </si>
-  <si>
-    <t>30N004000188</t>
-  </si>
-  <si>
-    <t>30N004000314</t>
-  </si>
-  <si>
-    <t>30N004000234</t>
-  </si>
-  <si>
-    <t>30N004000334</t>
-  </si>
-  <si>
-    <t>30N004000106</t>
-  </si>
-  <si>
-    <t>30N004000372</t>
-  </si>
-  <si>
-    <t>30N004000068</t>
-  </si>
-  <si>
-    <t>30N004000375</t>
-  </si>
-  <si>
-    <t>30N004000103</t>
-  </si>
-  <si>
-    <t>30N004000226</t>
-  </si>
-  <si>
     <t>30N004000368</t>
   </si>
   <si>
-    <t>30N004000323</t>
-  </si>
-  <si>
-    <t>30N004000346</t>
-  </si>
-  <si>
-    <t>30N004000373</t>
-  </si>
-  <si>
-    <t>30N004000110</t>
-  </si>
-  <si>
-    <t>30N004000376</t>
-  </si>
-  <si>
-    <t>30N004000121</t>
-  </si>
-  <si>
-    <t>30n004000230</t>
-  </si>
-  <si>
-    <t>30n004000093</t>
-  </si>
-  <si>
-    <t>30n004000081</t>
-  </si>
-  <si>
-    <t>30n004000313</t>
-  </si>
-  <si>
-    <t>30n004000213</t>
-  </si>
-  <si>
-    <t>30n004000367</t>
-  </si>
-  <si>
-    <t>30n004000395</t>
-  </si>
-  <si>
-    <t>30n004000143</t>
-  </si>
-  <si>
-    <t>30n004000198</t>
-  </si>
-  <si>
-    <t>30n004000020</t>
-  </si>
-  <si>
-    <t>30n004000091</t>
-  </si>
-  <si>
-    <t>30n004000189</t>
-  </si>
-  <si>
-    <t>30n004000101</t>
-  </si>
-  <si>
-    <t>30n004000139</t>
-  </si>
-  <si>
-    <t>30n004000140</t>
-  </si>
-  <si>
-    <t>30n004000206</t>
-  </si>
-  <si>
-    <t>30n004000128</t>
-  </si>
-  <si>
-    <t>30n004000374</t>
-  </si>
-  <si>
-    <t>30n004000306</t>
-  </si>
-  <si>
-    <t>30n004000013</t>
-  </si>
-  <si>
-    <t>30N004000007</t>
-  </si>
-  <si>
-    <t>30N004000378</t>
-  </si>
-  <si>
-    <t>30N004000238</t>
-  </si>
-  <si>
-    <t>30N004000022</t>
-  </si>
-  <si>
-    <t>30N004000399</t>
-  </si>
-  <si>
-    <t>30N004000333</t>
-  </si>
-  <si>
-    <t>30N004000211</t>
-  </si>
-  <si>
     <t>30N004000324</t>
   </si>
   <si>
-    <t>30N004000369</t>
-  </si>
-  <si>
     <t>30N004000347</t>
-  </si>
-  <si>
-    <t>30N004000141</t>
-  </si>
-  <si>
-    <t>30N004000402</t>
-  </si>
-  <si>
-    <t>30N004000039</t>
-  </si>
-  <si>
-    <t>30N004000118</t>
-  </si>
-  <si>
-    <t>30N004000194</t>
-  </si>
-  <si>
-    <t>30N004000319</t>
-  </si>
-  <si>
-    <t>30N004000019</t>
-  </si>
-  <si>
-    <t>30N004000109</t>
-  </si>
-  <si>
-    <t>30N004000229</t>
-  </si>
-  <si>
-    <t>30N004000335</t>
   </si>
 </sst>
 </file>
@@ -596,12 +381,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -616,9 +407,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E415887-81C8-46B5-8F10-37A97DBE9218}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,586 +1374,6 @@
         <v>30N004000336</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D106" si="1">B67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2172,7 +1385,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288860F8-B1F9-4E34-8D7B-A7E71183E4F1}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:D116"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,617 +1687,624 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>105</v>
       </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>107</v>
       </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" t="s">
-        <v>102</v>
-      </c>
-      <c r="J59" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>147</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>156</v>
-      </c>
-      <c r="D94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>157</v>
-      </c>
-      <c r="D95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>158</v>
-      </c>
-      <c r="D96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>166</v>
-      </c>
-      <c r="D104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>168</v>
-      </c>
       <c r="D106" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>169</v>
-      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>170</v>
-      </c>
+      <c r="F107">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>171</v>
-      </c>
+      <c r="F108">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>172</v>
-      </c>
+      <c r="F109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>173</v>
-      </c>
+      <c r="F110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>174</v>
-      </c>
+      <c r="F111">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>175</v>
-      </c>
-      <c r="D113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>177</v>
-      </c>
-      <c r="D115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" t="s">
-        <v>102</v>
+      <c r="F112">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/db/Please update this one tomorrow.xlsx
+++ b/db/Please update this one tomorrow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bizcom\Desktop\Javafx-AWS-RDS\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B69F3B-D240-4867-B662-DAA29F6D0F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E5003-F244-4BA5-B4A4-73F8A7AE29BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CE4F9082-8BB9-4493-B760-4C14D8339CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="p04 r17 firmware no assem" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="112019" sheetId="6" r:id="rId3"/>
     <sheet name="assem upload firmware" sheetId="3" r:id="rId4"/>
     <sheet name="new fail" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="112">
   <si>
     <t>stt</t>
   </si>
@@ -359,6 +362,18 @@
   </si>
   <si>
     <t>30N004000347</t>
+  </si>
+  <si>
+    <t>11 18 4h30</t>
+  </si>
+  <si>
+    <t>11 19 4h39</t>
+  </si>
+  <si>
+    <t>111 20 10 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 21 10 10</t>
   </si>
 </sst>
 </file>
@@ -427,6 +442,2511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000075" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37629267-EAA3-4900-9093-62199324679C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="800100"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000135" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9842F07E-A180-4A8B-AD1C-5C6D5AB9FADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="1381125"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000147" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0BE517-20FD-498A-8C76-9BBBEE0EB9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1952625"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000131" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2A3A47-4733-467D-98E7-0D55D99C7A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="2524125"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000012" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A80148B-06FD-4076-9706-BF4104140A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3124200"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000137" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B50276-2D67-46B5-B1E7-6A3795B2EAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="3667125"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000096" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193D26F6-AC2A-45BD-BBB3-1FDD79A28266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="4238625"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000035" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6D0918-7E72-4F6E-BC5D-69C16DCD3BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="4838700"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000052" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09781078-98B7-43CC-8388-3A95DA5010B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="5391150"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.69pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000060" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCC2A6D-434F-411B-A856-A1BB99DA9609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="5972175"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000122" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48723452-16E5-49A6-B4B7-2D0C672BA6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="619125"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000047" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BFB651-C3D5-48C8-8EF4-E8671873ACE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="1285875"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000033" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADF97E2-1320-4B36-AD40-27EF3813055E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="1857375"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000350" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E465003-04C4-4EDC-8E3C-B2C17167489A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="2438400"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000345" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF40CD7A-F39E-4A5F-91B6-FB4140C91E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3028950"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000082" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D102DE15-6AA5-437E-BEED-EAEC3F49FFF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3581400"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000113" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F4B99C-D349-4601-8067-79A1FF46FD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="4152900"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000065" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5731DE-3F70-43E3-9AA6-EE1632E04E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="4772025"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000348" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C0FFBA-CE30-45C3-9CCA-47858D13DC72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="5391150"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000038" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038E897-F505-429D-8B0D-F4D8930BBC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="6000750"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000097" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB88B822-26F1-477B-BABA-DA087812ED03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="133350"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000362" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158E85B1-3266-488C-8208-3D20AD8C01CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="695325"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000059" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9AB65E-BF64-44F0-9E26-DD8CC2556FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="1247775"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000352" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8A062F-5BCC-415C-AD02-5865FDE3841D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="1809750"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000016" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA5A02D-FBCF-4AD0-9049-0BE99D2C7178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="2390775"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000086" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C20E9A-3E62-47C1-A986-DAE3C202E451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="2971800"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000363" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFF769D-8F0E-4D37-9889-5F0065EF0DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="3590925"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000202" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A5F33C-C120-48D5-8CD3-1B176E69B576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="4143375"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000087" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A0DDF7-E216-4027-9AE2-C58F347D3D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="4762500"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000303" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E7D824-30ED-48E3-B15D-5D3DF1D79263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="5448300"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000386" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF95F0DC-8FE6-4073-BE30-032F50D1C14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="6115050"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000048" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661E352D-FB65-47A2-BE53-025878342237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="247650"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000119" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399F596-F48A-4493-8B16-C208EEE2F852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="828675"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000237" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58C33B7-8A2F-46DC-AF49-0359F384DCB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="1419225"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000383" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF80FA4-B1AB-4EE2-8DEF-F6A5A0ACBCE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="1971675"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000042" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D1A1A5-424B-40C6-B298-9D4CDEA5F390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="2609850"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000318" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBA605C-98AC-42DE-8112-9FB7421B35C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="3305175"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000055" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B27AAD-8A00-42BE-8608-85DE48E2E2BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="3924300"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000138" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0C8FAF-23D2-4C87-9ED6-E810B51ABF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="4495800"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000209" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05329F10-44A8-409F-980C-AF0DA1ACF46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="5067300"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000380" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917CD714-FFC0-4137-B30B-326C16F5A125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="5629275"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000336" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872A0C39-0FDB-4EC2-B5CB-AAA5A13AEC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="6210300"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000357" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9D691A-2DAD-4CE5-A9F8-0D8941E1EF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="476250"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000361" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316220E3-7F72-4A3B-AC44-951F6DE62318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="1181100"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000145" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8E51E3-EDB6-46D3-A6CA-01A223D7D5AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="2009775"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000355" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D40FF9B-F90E-4119-B74E-8D2C8B7E6AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="2733675"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000308" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F53116-61EF-4FB7-B2F0-651CA5D9A6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="3429000"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000014" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6397F3F-B0B2-42E2-B9C8-191DDDB736F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="4162425"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000208" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC44FF93-AE9D-4F97-9CD7-C0E56405E9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610725" y="4876800"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="_TBCO10;B=20;CC=0;W=96.75pt;H=39.75pt;M=254;S=1;BS=1;CP=1;CPC=0;EM=0;E=0;DPI=300.00;DRM=0;BBT=0;BBW=-1;BWR=0.00;BWU=0;BG=0;CD=1;CPR=0;F=Calibri,9.00,,,0,0,0,0,,,;FS=9;FN=Calibri;FM=;O=0;QZB=0.00;QZL=0.00;QZR=0.00;QZT=0.00;QZU=0;R=0;PR=;T=1;TA=0;SE=0;SR=-1;A=0;TD=0;FC=0;BC=16777215;TC=0;LC=;D=30N004000037" title="Code 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C750E5B-4880-4D67-83DD-95095F61B5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="5534025"/>
+          <a:ext cx="1228725" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E415887-81C8-46B5-8F10-37A97DBE9218}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" activeCellId="1" sqref="B34:B35 B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">B3</f>
+        <f t="shared" ref="D3:D51" si="0">B3</f>
         <v>30N004000135</v>
       </c>
     </row>
@@ -1372,6 +3892,14 @@
       <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>30N004000336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +3913,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,92 +4010,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288860F8-B1F9-4E34-8D7B-A7E71183E4F1}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2394,4 +4930,274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D612A1-7FC3-4C96-A669-BA197FCC7DF3}">
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>